--- a/public/preprocessing/@aagym.xlsx
+++ b/public/preprocessing/@aagym.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14150</v>
+        <v>29948</v>
       </c>
       <c r="C2" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kiat bisnis online di momen romadhon</t>
+          <t>menyempurnakan dalam berbuat baik kajian mq pagi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kiat', 'bisnis', 'online', 'di', 'momen', 'romadhon']</t>
+          <t>['menyempurnakan', 'dalam', 'berbuat', 'baik', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['menyempurnakan', 'dalam', 'berbuat', 'baik', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kiat', 'bisnis', 'online', 'momen', 'romadhon']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kiat', 'bisnis', 'online', 'momen', 'romadhon']</t>
+          <t>['menyempurnakan', 'berbuat', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['sempurna', 'buat', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14151</v>
+        <v>29949</v>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>narkoba tinjauan ilmu fiqih dan sosial</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['narkoba', 'tinjauan', 'ilmu', 'fiqih', 'dan', 'sosial']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['narkoba', 'tinjauan', 'ilmu', 'fiqih', 'dan', 'sosial']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['narkoba', 'tinjauan', 'ilmu', 'fiqih', 'sosial']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['narkoba', 'tinjau', 'ilmu', 'fiqih', 'sosial']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14152</v>
+        <v>29950</v>
       </c>
       <c r="C4" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fiqih sholat ketika banjir kajian mq pagi</t>
+          <t>kajian bersama ustadz dasad latif amp aa gym</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'ketika', 'banjir', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'bersama', 'ustadz', 'dasad', 'latif', 'amp', 'aa', 'gym']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kajian', 'bersama', 'ustaz', 'dasad', 'latif', 'amp', 'kakak', 'gym']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'banjir', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'banjir', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'ustaz', 'dasad', 'latif', 'kakak', 'gym']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['kaji', 'ustaz', 'dasad', 'latif', 'kakak', 'gym']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14153</v>
+        <v>29951</v>
       </c>
       <c r="C5" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>akhlaq muslim terhadapat sampah kajian mq pagi</t>
+          <t>penciptaan manusia kajian mq pagi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kajian', 'mq', 'pagi']</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kaji', 'mq', 'pagi']</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['cipta', 'manusia', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14154</v>
+        <v>29952</v>
       </c>
       <c r="C6" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bekam solusi sehat ala nabi</t>
+          <t>hikmah isra miraj rasulullah kajian mq pagi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
+          <t>['hikmah', 'isra', 'miraj', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['hikmah', 'isra', 'miraj', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
+          <t>['hikmah', 'isra', 'miraj', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['hikmah', 'isra', 'miraj', 'rasulullah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14155</v>
+        <v>29953</v>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kajian marifatullah</t>
+          <t>kajian asmaul husna live dari turki</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kajian', 'marifatullah']</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'dari', 'turki']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'dari', 'turki']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kajian', 'marifatullah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kaji', 'marifatullah']</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'turki']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['kaji', 'asmaul', 'husna', 'live', 'turki']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14156</v>
+        <v>29954</v>
       </c>
       <c r="C8" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>janisjenis rizqi kajian mq pagi</t>
+          <t>kajian kitab alhikam</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizqi', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'kitab', 'alhikam']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'kitab', 'alhikam']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizqi', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizqi', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'kitab', 'alhikam']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['kaji', 'kitab', 'alhikam']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14157</v>
+        <v>29955</v>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>janisjenis rizeqi kajian mq pagi</t>
+          <t>obrolan ringan dengan warga turki kajian mq pagi live dari turki</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizeqi', 'kajian', 'mq', 'pagi']</t>
+          <t>['obrolan', 'ringan', 'dengan', 'warga', 'turki', 'kajian', 'mq', 'pagi', 'live', 'dari', 'turki']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['obrolan', 'ringan', 'dengan', 'warga', 'turki', 'kajian', 'mq', 'pagi', 'live', 'dari', 'turki']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizeqi', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['janisjenis', 'rizeqi', 'kaji', 'mq', 'pagi']</t>
+          <t>['obrolan', 'ringan', 'warga', 'turki', 'kajian', 'mq', 'pagi', 'live', 'turki']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['obrol', 'ringan', 'warga', 'turki', 'kaji', 'mq', 'pagi', 'live', 'turki']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14158</v>
+        <v>29956</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>kajian marifatullah</t>
+          <t>bijak mengelola keuangan keluarga di masa pandemi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['kajian', 'marifatullah']</t>
+          <t>['bijak', 'mengelola', 'keuangan', 'keluarga', 'di', 'masa', 'pandemi']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bijak', 'mengelola', 'keuangan', 'keluarga', 'di', 'masa', 'pandemi']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['kajian', 'marifatullah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['kaji', 'marifatullah']</t>
+          <t>['bijak', 'mengelola', 'keuangan', 'keluarga', 'pandemi']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['bijak', 'kelola', 'uang', 'keluarga', 'pandemi']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14159</v>
+        <v>29957</v>
       </c>
       <c r="C11" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kajian al hikam</t>
+          <t>habib ir nabiel al musawa oase keimanan dalam mujizat isra miraj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['kajian', 'al', 'hikam']</t>
+          <t>['habib', 'ir', 'nabiel', 'al', 'musawa', 'oase', 'keimanan', 'dalam', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'oase', 'keimanan', 'dalam', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['kajian', 'al', 'hikam']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kaji', 'al', 'hikam']</t>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'oase', 'keimanan', 'mujizat', 'isra', 'miraj']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'oase', 'iman', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14160</v>
+        <v>29958</v>
       </c>
       <c r="C12" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>mengapa minuman keras diharamkan apa hikmahnya</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['mengapa', 'minuman', 'keras', 'diharamkan', 'apa', 'hikmahnya']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mengapa', 'minuman', 'keras', 'diharamkan', 'apa', 'hikmahnya']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['minuman', 'keras', 'diharamkan', 'hikmahnya']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['minum', 'keras', 'haram', 'hikmah']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14161</v>
+        <v>29959</v>
       </c>
       <c r="C13" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pentingnya umat islam memiliki kekuatan ekonomi</t>
+          <t>habib ir nabiel al musawa amp aa gym oase keimanan dalam mujizat isra miraj</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pentingnya', 'umat', 'islam', 'memiliki', 'kekuatan', 'ekonomi']</t>
+          <t>['habib', 'ir', 'nabiel', 'al', 'musawa', 'amp', 'aa', 'gym', 'oase', 'keimanan', 'dalam', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'amp', 'kakak', 'gym', 'oase', 'keimanan', 'dalam', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['umat', 'islam', 'memiliki', 'kekuatan', 'ekonomi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['umat', 'islam', 'milik', 'kuat', 'ekonomi']</t>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'kakak', 'gym', 'oase', 'keimanan', 'mujizat', 'isra', 'miraj']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['habib', 'insinyur', 'nabiel', 'al', 'musawa', 'kakak', 'gym', 'oase', 'iman', 'mujizat', 'isra', 'miraj']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14162</v>
+        <v>29960</v>
       </c>
       <c r="C14" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>kajian mq pagi bersama aa deda amp ustadz komarudin</t>
+          <t>kajian mq pagi live dari istanbul turki</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi', 'bersama', 'aa', 'deda', 'amp', 'ustadz', 'komarudin']</t>
+          <t>['kajian', 'mq', 'pagi', 'live', 'dari', 'istanbul', 'turki']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi', 'live', 'dari', 'istanbul', 'turki']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi', 'aa', 'deda', 'ustadz', 'komarudin']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi', 'aa', 'deda', 'ustadz', 'komarudin']</t>
+          <t>['kajian', 'mq', 'pagi', 'live', 'istanbul', 'turki']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi', 'live', 'istanbul', 'turki']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14163</v>
+        <v>29961</v>
       </c>
       <c r="C15" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>tanya jawab keutamaan bulan rojab amp amaliah di dalamnya oleh ustadz mulyadi alfadhil</t>
+          <t>jurus sehat rosululloh bersama dr zaidul akbar amp dr asep hermana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['tanya', 'jawab', 'keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['jurus', 'sehat', 'rosululloh', 'bersama', 'dr', 'zaidul', 'akbar', 'amp', 'dr', 'asep', 'hermana']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['jurus', 'sehat', 'rosululloh', 'bersama', 'dari', 'zaidul', 'akbar', 'amp', 'dari', 'asep', 'hermana']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['keutamaan', 'rojab', 'amaliah', 'dalamnya', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['utama', 'rojab', 'amaliah', 'dalam', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['jurus', 'sehat', 'rosululloh', 'zaidul', 'akbar', 'asep', 'hermana']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['jurus', 'sehat', 'rosululloh', 'zaidul', 'akbar', 'asep', 'hermana']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14164</v>
+        <v>29962</v>
       </c>
       <c r="C16" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bersama kita bangkit pulihkan indonesia live tv one</t>
+          <t>alloh yang maha penolong</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bersama', 'kita', 'bangkit', 'pulihkan', 'indonesia', 'live', 'tv', 'one']</t>
+          <t>['alloh', 'yang', 'maha', 'penolong']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['allah', 'yang', 'maha', 'penolong']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['bangkit', 'pulihkan', 'indonesia', 'live', 'tv', 'one']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['bangkit', 'pulih', 'indonesia', 'live', 'tv', 'one']</t>
+          <t>['allah', 'maha', 'penolong']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['allah', 'maha', 'tolong']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14165</v>
+        <v>29963</v>
       </c>
       <c r="C17" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>keutamaan bulan rojab amp amaliah di dalamnya oleh ustadz mulyadi alfadhil</t>
+          <t>kajian asmaul husna live dari istanbul turki</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'dari', 'istanbul', 'turki']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'dari', 'istanbul', 'turki']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['keutamaan', 'rojab', 'amaliah', 'dalamnya', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['utama', 'rojab', 'amaliah', 'dalam', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['kajian', 'asmaul', 'husna', 'live', 'istanbul', 'turki']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['kaji', 'asmaul', 'husna', 'live', 'istanbul', 'turki']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14166</v>
+        <v>29964</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>menggapai pertolongan alloh dengan alquran oleh ustadz fatih karim amp aa gym</t>
+          <t>perintah mengikuti kebenaran oleh ustadz mulyadi alfadhil</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['menggapai', 'pertolongan', 'alloh', 'dengan', 'alquran', 'oleh', 'ustadz', 'fatih', 'karim', 'amp', 'aa', 'gym']</t>
+          <t>['perintah', 'mengikuti', 'kebenaran', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['perintah', 'mengikuti', 'kebenaran', 'oleh', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['menggapai', 'pertolongan', 'alloh', 'alquran', 'ustadz', 'fatih', 'karim', 'aa', 'gym']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['gapai', 'tolong', 'alloh', 'alquran', 'ustadz', 'fatih', 'karim', 'aa', 'gym']</t>
+          <t>['perintah', 'mengikuti', 'kebenaran', 'ustaz', 'mulyadi', 'alfadhil']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['perintah', 'ikut', 'benar', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14167</v>
+        <v>29965</v>
       </c>
       <c r="C19" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>umat akhir zaman oleh ustadz abdul somad amp aa gym</t>
+          <t>hikmah amp sejarah turki bersama ustadz roni abdul fattah amp aa gym</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym']</t>
+          <t>['hikmah', 'amp', 'sejarah', 'turki', 'bersama', 'ustadz', 'roni', 'abdul', 'fattah', 'amp', 'aa', 'gym']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['hikmah', 'amp', 'sejarah', 'turki', 'bersama', 'ustaz', 'roni', 'abdul', 'fattah', 'amp', 'kakak', 'gym']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym']</t>
+          <t>['hikmah', 'sejarah', 'turki', 'ustaz', 'roni', 'abdul', 'fattah', 'kakak', 'gym']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['hikmah', 'sejarah', 'turki', 'ustaz', 'roni', 'abdul', 'fattah', 'kakak', 'gym']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14168</v>
+        <v>29966</v>
       </c>
       <c r="C20" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>umat akhir zaman oleh ustadz abdul somad amp aa gym</t>
+          <t>kunci bangkit dari kerugian usaha</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym']</t>
+          <t>['kunci', 'bangkit', 'dari', 'kerugian', 'usaha']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kunci', 'bangkit', 'dari', 'kerugian', 'usaha']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym']</t>
+          <t>['kunci', 'bangkit', 'kerugian', 'usaha']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kunci', 'bangkit', 'rugi', 'usaha']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14169</v>
+        <v>29967</v>
       </c>
       <c r="C21" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>habbatussauda untuk covid oleh dr asep hermana amp dr widiyastuti</t>
+          <t>kajian bersama ustadz salim  fillah</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['habbatussauda', 'untuk', 'covid', 'oleh', 'dr', 'asep', 'hermana', 'amp', 'dr', 'widiyastuti']</t>
+          <t>['kajian', 'bersama', 'ustadz', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['kajian', 'bersama', 'ustaz', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['habbatussauda', 'covid', 'dr', 'asep', 'hermana', 'dr', 'widiyastuti']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['habbatussauda', 'covid', 'dr', 'asep', 'hermana', 'dr', 'widiyastuti']</t>
+          <t>['kajian', 'ustaz', 'salim', 'fillah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kaji', 'ustaz', 'salim', 'fillah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14170</v>
+        <v>29968</v>
       </c>
       <c r="C22" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>alwaliy alloh maha pelindung</t>
+          <t>fiqih muamalah memahami hukum jual beli dalam islam</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['alwaliy', 'alloh', 'maha', 'pelindung']</t>
+          <t>['fiqih', 'muamalah', 'memahami', 'hukum', 'jual', 'beli', 'dalam', 'islam']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['fiqih', 'muamalah', 'memahami', 'hukum', 'jual', 'beli', 'dalam', 'islam']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['alwaliy', 'alloh', 'maha', 'pelindung']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['alwaliy', 'alloh', 'maha', 'lindung']</t>
+          <t>['fiqih', 'muamalah', 'memahami', 'hukum', 'jual', 'beli', 'islam']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['fiqih', 'muamalah', 'paham', 'hukum', 'jual', 'beli', 'islam']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14171</v>
+        <v>29969</v>
       </c>
       <c r="C23" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kajian asmaul husna</t>
+          <t>kiat hidup lebih bahagia kajian mq pagi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kajian', 'asmaul', 'husna']</t>
+          <t>['kiat', 'hidup', 'lebih', 'bahagia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kiat', 'hidup', 'lebih', 'bahagia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kajian', 'asmaul', 'husna']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['kaji', 'asmaul', 'husna']</t>
+          <t>['kiat', 'hidup', 'bahagia', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kiat', 'hidup', 'bahagia', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14172</v>
+        <v>29970</v>
       </c>
       <c r="C24" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>kajian kitab al hikam</t>
+          <t>kiat hidup lebih bahagia kajian mq pagi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'al', 'hikam']</t>
+          <t>['kiat', 'hidup', 'lebih', 'bahagia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kiat', 'hidup', 'lebih', 'bahagia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'al', 'hikam']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['kaji', 'kitab', 'al', 'hikam']</t>
+          <t>['kiat', 'hidup', 'bahagia', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['kiat', 'hidup', 'bahagia', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14173</v>
+        <v>29971</v>
       </c>
       <c r="C25" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>lindungi anak dari covid kajian mq pagi bersama para dokter</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['lindungi', 'anak', 'dari', 'covid', 'kajian', 'mq', 'pagi', 'bersama', 'para', 'dokter']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['lindungi', 'anak', 'dari', 'covid', 'kajian', 'mq', 'pagi', 'bersama', 'para', 'dokter']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['lindungi', 'anak', 'covid', 'kajian', 'mq', 'pagi', 'dokter']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['lindung', 'anak', 'covid', 'kaji', 'mq', 'pagi', 'dokter']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14174</v>
+        <v>29972</v>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>etika bisnis dalam masa pandemi oleh aa deda amp pak gatot</t>
+          <t>lindungi anak dari covid kajian mq pagi bersama para dokter</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['etika', 'bisnis', 'dalam', 'masa', 'pandemi', 'oleh', 'aa', 'deda', 'amp', 'pak', 'gatot']</t>
+          <t>['lindungi', 'anak', 'dari', 'covid', 'kajian', 'mq', 'pagi', 'bersama', 'para', 'dokter']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['lindungi', 'anak', 'dari', 'covid', 'kajian', 'mq', 'pagi', 'bersama', 'para', 'dokter']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['etika', 'bisnis', 'pandemi', 'aa', 'deda', 'gatot']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['etika', 'bisnis', 'pandemi', 'aa', 'deda', 'gatot']</t>
+          <t>['lindungi', 'anak', 'covid', 'kajian', 'mq', 'pagi', 'dokter']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['lindung', 'anak', 'covid', 'kaji', 'mq', 'pagi', 'dokter']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14175</v>
+        <v>29973</v>
       </c>
       <c r="C27" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>umat akhir zaman bersama ustadz abdul somad amp aa gym kajian mt aisyah</t>
+          <t>mintalah segalanya kepada alloh kajian mq pagi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['umat', 'akhir', 'zaman', 'bersama', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym', 'kajian', 'mt', 'aisyah']</t>
+          <t>['mintalah', 'segalanya', 'kepada', 'alloh', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['mintalah', 'segalanya', 'kepada', 'allah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym', 'kajian', 'mt', 'aisyah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['umat', 'zaman', 'ustadz', 'abdul', 'somad', 'aa', 'gym', 'kaji', 'mt', 'aisyah']</t>
+          <t>['mintalah', 'allah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['minta', 'allah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14176</v>
+        <v>29974</v>
       </c>
       <c r="C28" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>fiqih wakaf part kajian mq pagi</t>
+          <t>kajian asmaul husna</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'part', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'part', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'part', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14177</v>
+        <v>29975</v>
       </c>
       <c r="C29" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>fiqih wakaf kajian mq pagi</t>
+          <t>kajian al hikam</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'al', 'hikam']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'al', 'hikam']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['fiqih', 'wakaf', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'al', 'hikam']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kaji', 'al', 'hikam']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14178</v>
+        <v>29976</v>
       </c>
       <c r="C30" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>penciptaan manusia kajian mq pagi</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['cipta', 'manusia', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14179</v>
+        <v>29977</v>
       </c>
       <c r="C31" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>kiat bisnis online di momen romadhon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['kiat', 'bisnis', 'online', 'di', 'momen', 'romadhon']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kiat', 'bisnis', 'online', 'di', 'momen', 'romadhon']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['kiat', 'bisnis', 'online', 'momen', 'romadhon']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kiat', 'bisnis', 'online', 'momen', 'romadhon']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14180</v>
+        <v>29978</v>
       </c>
       <c r="C32" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>alloh melapangkan dan menyempitkan kajian asmaul husna</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['alloh', 'melapangkan', 'dan', 'menyempitkan', 'kajian', 'asmaul', 'husna']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['alloh', 'melapangkan', 'menyempitkan', 'kajian', 'asmaul', 'husna']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['alloh', 'lapang', 'sempit', 'kaji', 'asmaul', 'husna']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14181</v>
+        <v>29979</v>
       </c>
       <c r="C33" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>nuurulyaqiin cahaya keyakinan alhikam no</t>
+          <t>fiqih sholat ketika banjir kajian mq pagi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['nuurulyaqiin', 'cahaya', 'keyakinan', 'alhikam', 'no']</t>
+          <t>['fiqih', 'sholat', 'ketika', 'banjir', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['fiqih', 'salat', 'ketika', 'banjir', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['nuurulyaqiin', 'cahaya', 'keyakinan', 'alhikam', 'no']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['nuurulyaqiin', 'cahaya', 'yakin', 'alhikam', 'no']</t>
+          <t>['fiqih', 'salat', 'banjir', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['fiqih', 'salat', 'banjir', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14182</v>
+        <v>29980</v>
       </c>
       <c r="C34" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>agar urusan kita diurus sempurna oleh alloh kajian mq pagi</t>
+          <t>akhlaq muslim terhadapat sampah kajian mq pagi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['agar', 'urusan', 'kita', 'diurus', 'sempurna', 'oleh', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['urusan', 'diurus', 'sempurna', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['urus', 'urus', 'sempurna', 'alloh', 'kaji', 'mq', 'pagi']</t>
+          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['akhlaq', 'muslim', 'terhadapat', 'sampah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14183</v>
+        <v>29981</v>
       </c>
       <c r="C35" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>wirausaha sebagai sunnah rasulullah kajian mq pagi</t>
+          <t>bekam solusi sehat ala nabi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sebagai', 'sunnah', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
+          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sunnah', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sunnah', 'rasulullah', 'kaji', 'mq', 'pagi']</t>
+          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['bekam', 'solusi', 'sehat', 'ala', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14184</v>
+        <v>29982</v>
       </c>
       <c r="C36" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>alat ukur ke imanan kita</t>
+          <t>kajian marifatullah</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['alat', 'ukur', 'ke', 'imanan', 'kita']</t>
+          <t>['kajian', 'marifatullah']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'marifatullah']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['alat', 'ukur', 'imanan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['alat', 'ukur', 'iman']</t>
+          <t>['kajian', 'marifatullah']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['kaji', 'marifatullah']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14185</v>
+        <v>29983</v>
       </c>
       <c r="C37" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>fiqih sholat safar oleh ustadz mulyadi alfadhil kajian mq pagi</t>
+          <t>janisjenis rizqi kajian mq pagi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'safar', 'oleh', 'ustadz', 'mulyadi', 'alfadhil', 'kajian', 'mq', 'pagi']</t>
+          <t>['janisjenis', 'rizqi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['janisjenis', 'rizqi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'safar', 'ustadz', 'mulyadi', 'alfadhil', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['fiqih', 'sholat', 'safar', 'ustadz', 'mulyadi', 'alfadhil', 'kaji', 'mq', 'pagi']</t>
+          <t>['janisjenis', 'rizqi', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['janisjenis', 'rizqi', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14186</v>
+        <v>29984</v>
       </c>
       <c r="C38" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>berbincang dengan kembaran aa prof jim dari usa</t>
+          <t>janisjenis rizeqi kajian mq pagi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['berbincang', 'dengan', 'kembaran', 'aa', 'prof', 'jim', 'dari', 'usa']</t>
+          <t>['janisjenis', 'rizeqi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['janisjenis', 'rizeqi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['berbincang', 'kembaran', 'aa', 'prof', 'jim', 'usa']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['bincang', 'kembar', 'aa', 'prof', 'jim', 'usa']</t>
+          <t>['janisjenis', 'rizeqi', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['janisjenis', 'rizeqi', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14187</v>
+        <v>29985</v>
       </c>
       <c r="C39" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>thibbun nabawi solusi sehat ala rosulullah kajian mq pagi</t>
+          <t>kajian marifatullah</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rosulullah', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'marifatullah']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kajian', 'marifatullah']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rosulullah', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rosulullah', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'marifatullah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kaji', 'marifatullah']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14188</v>
+        <v>29986</v>
       </c>
       <c r="C40" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>kajian al hikam</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'al', 'hikam']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['kajian', 'al', 'hikam']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['kajian', 'mq', 'pagi']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'al', 'hikam']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kaji', 'al', 'hikam']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14189</v>
+        <v>29987</v>
       </c>
       <c r="C41" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>arrouuf alloh maha penyantun pemberi kajian asmaul husna</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'penyantun', 'pemberi', 'kajian', 'asmaul', 'husna']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'penyantun', 'pemberi', 'kajian', 'asmaul', 'husna']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'santun', 'beri', 'kaji', 'asmaul', 'husna']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14190</v>
+        <v>29988</v>
       </c>
       <c r="C42" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>arrouuf alloh maha penyayang kajian asmaul husna</t>
+          <t>pentingnya umat islam memiliki kekuatan ekonomi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'penyayang', 'kajian', 'asmaul', 'husna']</t>
+          <t>['pentingnya', 'umat', 'islam', 'memiliki', 'kekuatan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['pentingnya', 'umat', 'islam', 'memiliki', 'kekuatan', 'ekonomi']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'penyayang', 'kajian', 'asmaul', 'husna']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['arrouuf', 'alloh', 'maha', 'sayang', 'kaji', 'asmaul', 'husna']</t>
+          <t>['umat', 'islam', 'memiliki', 'kekuatan', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['umat', 'islam', 'milik', 'kuat', 'ekonomi']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14191</v>
+        <v>29989</v>
       </c>
       <c r="C43" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>kajian kitab alhikam no</t>
+          <t>kajian mq pagi bersama aa deda amp ustadz komarudin</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'mq', 'pagi', 'bersama', 'aa', 'deda', 'amp', 'ustadz', 'komarudin']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi', 'bersama', 'kakak', 'deda', 'amp', 'ustaz', 'komarudin']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['kaji', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'mq', 'pagi', 'kakak', 'deda', 'ustaz', 'komarudin']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi', 'kakak', 'deda', 'ustaz', 'komarudin']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14192</v>
+        <v>29990</v>
       </c>
       <c r="C44" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>wirausaha sebagai sunah rosul kajian mq pagi</t>
+          <t>tanya jawab keutamaan bulan rojab amp amaliah di dalamnya oleh ustadz mulyadi alfadhil</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sebagai', 'sunah', 'rosul', 'kajian', 'mq', 'pagi']</t>
+          <t>['tanya', 'jawab', 'keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tanya', 'jawab', 'keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sunah', 'rosul', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['wirausaha', 'sunah', 'rosul', 'kaji', 'mq', 'pagi']</t>
+          <t>['keutamaan', 'rojab', 'amaliah', 'dalamnya', 'ustaz', 'mulyadi', 'alfadhil']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['utama', 'rojab', 'amaliah', 'dalam', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14193</v>
+        <v>29991</v>
       </c>
       <c r="C45" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>fiqih pasien oleh ustadz mulyadi alfadhil</t>
+          <t>bersama kita bangkit pulihkan indonesia live tv one</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['fiqih', 'pasien', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['bersama', 'kita', 'bangkit', 'pulihkan', 'indonesia', 'live', 'tv', 'one']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bersama', 'kita', 'bangkit', 'pulihkan', 'indonesia', 'live', 'televisi', 'one']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['fiqih', 'pasien', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['fiqih', 'pasien', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['bangkit', 'pulihkan', 'indonesia', 'live', 'televisi', 'one']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['bangkit', 'pulih', 'indonesia', 'live', 'televisi', 'one']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14194</v>
+        <v>29992</v>
       </c>
       <c r="C46" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pendengaran pengelihatan kulit ini akan bersaksi kelak</t>
+          <t>keutamaan bulan rojab amp amaliah di dalamnya oleh ustadz mulyadi alfadhil</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pendengaran', 'pengelihatan', 'kulit', 'ini', 'akan', 'bersaksi', 'kelak']</t>
+          <t>['keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['keutamaan', 'bulan', 'rojab', 'amp', 'amaliah', 'di', 'dalamnya', 'oleh', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['pendengaran', 'pengelihatan', 'kulit', 'bersaksi', 'kelak']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['dengar', 'lihat', 'kulit', 'saksi', 'kelak']</t>
+          <t>['keutamaan', 'rojab', 'amaliah', 'dalamnya', 'ustaz', 'mulyadi', 'alfadhil']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['utama', 'rojab', 'amaliah', 'dalam', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14195</v>
+        <v>29993</v>
       </c>
       <c r="C47" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>alloh memberi sebelum kita meminta</t>
+          <t>menggapai pertolongan alloh dengan alquran oleh ustadz fatih karim amp aa gym</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['alloh', 'memberi', 'sebelum', 'kita', 'meminta']</t>
+          <t>['menggapai', 'pertolongan', 'alloh', 'dengan', 'alquran', 'oleh', 'ustadz', 'fatih', 'karim', 'amp', 'aa', 'gym']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['menggapai', 'pertolongan', 'allah', 'dengan', 'alquran', 'oleh', 'ustaz', 'fatih', 'karim', 'amp', 'kakak', 'gym']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['alloh']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['alloh']</t>
+          <t>['menggapai', 'pertolongan', 'allah', 'alquran', 'ustaz', 'fatih', 'karim', 'kakak', 'gym']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['gapai', 'tolong', 'allah', 'alquran', 'ustaz', 'fatih', 'karim', 'kakak', 'gym']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14196</v>
+        <v>29994</v>
       </c>
       <c r="C48" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>umat akhir zaman oleh ustadz abdul somad amp aa gym</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustaz', 'abdul', 'somad', 'amp', 'kakak', 'gym']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14197</v>
+        <v>29995</v>
       </c>
       <c r="C49" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>umat akhir zaman oleh ustadz abdul somad amp aa gym</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['umat', 'akhir', 'zaman', 'oleh', 'ustaz', 'abdul', 'somad', 'amp', 'kakak', 'gym']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14198</v>
+        <v>29996</v>
       </c>
       <c r="C50" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>alloh yang maha pemberi kajian mq pagi</t>
+          <t>habbatussauda untuk covid oleh dr asep hermana amp dr widiyastuti</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['alloh', 'yang', 'maha', 'pemberi', 'kajian', 'mq', 'pagi']</t>
+          <t>['habbatussauda', 'untuk', 'covid', 'oleh', 'dr', 'asep', 'hermana', 'amp', 'dr', 'widiyastuti']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['habbatussauda', 'untuk', 'covid', 'oleh', 'dari', 'asep', 'hermana', 'amp', 'dari', 'widiyastuti']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'pemberi', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'beri', 'kaji', 'mq', 'pagi']</t>
+          <t>['habbatussauda', 'covid', 'asep', 'hermana', 'widiyastuti']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['habbatussauda', 'covid', 'asep', 'hermana', 'widiyastuti']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14199</v>
+        <v>29997</v>
       </c>
       <c r="C51" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>alwahhab kajian asmaul husna</t>
+          <t>alwaliy alloh maha pelindung</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['alwahhab', 'kajian', 'asmaul', 'husna']</t>
+          <t>['alwaliy', 'alloh', 'maha', 'pelindung']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['alwaliy', 'allah', 'maha', 'pelindung']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['alwahhab', 'kajian', 'asmaul', 'husna']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['alwahhab', 'kaji', 'asmaul', 'husna']</t>
+          <t>['alwaliy', 'allah', 'maha', 'pelindung']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['alwaliy', 'allah', 'maha', 'lindung']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14200</v>
+        <v>29998</v>
       </c>
       <c r="C52" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>kajian kitab alhikam no</t>
+          <t>kajian asmaul husna</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['kaji', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14201</v>
+        <v>29999</v>
       </c>
       <c r="C53" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>kajian kitab al hikam</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'kitab', 'al', 'hikam']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kajian', 'kitab', 'al', 'hikam']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'kitab', 'al', 'hikam']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['kaji', 'kitab', 'al', 'hikam']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14202</v>
+        <v>30000</v>
       </c>
       <c r="C54" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>akhlaq yang terlarang kajian mq pagi</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['akhlaq', 'yang', 'terlarang', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['akhlaq', 'terlarang', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['akhlaq', 'larang', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14203</v>
+        <v>30001</v>
       </c>
       <c r="C55" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>etika bisnis dalam masa pandemi oleh aa deda amp pak gatot</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['etika', 'bisnis', 'dalam', 'masa', 'pandemi', 'oleh', 'aa', 'deda', 'amp', 'pak', 'gatot']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['etika', 'bisnis', 'dalam', 'masa', 'pandemi', 'oleh', 'kakak', 'deda', 'amp', 'pak', 'gatot']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['etika', 'bisnis', 'pandemi', 'kakak', 'deda', 'gatot']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['etika', 'bisnis', 'pandemi', 'kakak', 'deda', 'gatot']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14204</v>
+        <v>30002</v>
       </c>
       <c r="C56" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>berprasangka baik kepada alloh kajian mq pagi</t>
+          <t>umat akhir zaman bersama ustadz abdul somad amp aa gym kajian mt aisyah</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['berprasangka', 'baik', 'kepada', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>['umat', 'akhir', 'zaman', 'bersama', 'ustadz', 'abdul', 'somad', 'amp', 'aa', 'gym', 'kajian', 'mt', 'aisyah']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['umat', 'akhir', 'zaman', 'bersama', 'ustaz', 'abdul', 'somad', 'amp', 'kakak', 'gym', 'kajian', 'mt', 'aisya']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['berprasangka', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['prasangka', 'alloh', 'kaji', 'mq', 'pagi']</t>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym', 'kajian', 'mt', 'aisya']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['umat', 'zaman', 'ustaz', 'abdul', 'somad', 'kakak', 'gym', 'kaji', 'mt', 'aisya']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14205</v>
+        <v>30003</v>
       </c>
       <c r="C57" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>diskusi vaksin sinovac bersama ahlinya kajian mq pagi</t>
+          <t>fiqih wakaf part kajian mq pagi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['diskusi', 'vaksin', 'sinovac', 'bersama', 'ahlinya', 'kajian', 'mq', 'pagi']</t>
+          <t>['fiqih', 'wakaf', 'part', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['fiqih', 'wakaf', 'part', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['diskusi', 'vaksin', 'sinovac', 'ahlinya', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['diskusi', 'vaksin', 'sinovac', 'ahli', 'kaji', 'mq', 'pagi']</t>
+          <t>['fiqih', 'wakaf', 'part', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['fiqih', 'wakaf', 'part', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14206</v>
+        <v>30004</v>
       </c>
       <c r="C58" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>fiqih wakaf kajian mq pagi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['fiqih', 'wakaf', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['fiqih', 'wakaf', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['fiqih', 'wakaf', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['fiqih', 'wakaf', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14207</v>
+        <v>30005</v>
       </c>
       <c r="C59" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>penciptaan manusia kajian mq pagi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['penciptaan', 'manusia', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['cipta', 'manusia', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14208</v>
+        <v>30006</v>
       </c>
       <c r="C60" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>just posted  photo</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['just', 'posted', 'photo']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14209</v>
+        <v>30007</v>
       </c>
       <c r="C61" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>kajian asmaul husna</t>
+          <t>alloh melapangkan dan menyempitkan kajian asmaul husna</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['kajian', 'asmaul', 'husna']</t>
+          <t>['alloh', 'melapangkan', 'dan', 'menyempitkan', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['allah', 'melapangkan', 'dan', 'menyempitkan', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kajian', 'asmaul', 'husna']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['kaji', 'asmaul', 'husna']</t>
+          <t>['allah', 'melapangkan', 'menyempitkan', 'kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['allah', 'lapang', 'sempit', 'kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14210</v>
+        <v>30008</v>
       </c>
       <c r="C62" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rahasia kematian</t>
+          <t>nuurulyaqiin cahaya keyakinan alhikam no</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rahasia', 'kematian']</t>
+          <t>['nuurulyaqiin', 'cahaya', 'keyakinan', 'alhikam', 'no']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['nuurulyaqiin', 'cahaya', 'keyakinan', 'alhikam', 'no']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['rahasia', 'kematian']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['rahasia', 'mati']</t>
+          <t>['nuurulyaqiin', 'cahaya', 'keyakinan', 'alhikam', 'no']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['nuurulyaqiin', 'cahaya', 'yakin', 'alhikam', 'no']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14211</v>
+        <v>30009</v>
       </c>
       <c r="C63" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>telah wafat syaikh ali saleh mohammed ali jaber</t>
+          <t>agar urusan kita diurus sempurna oleh alloh kajian mq pagi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['telah', 'wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
+          <t>['agar', 'urusan', 'kita', 'diurus', 'sempurna', 'oleh', 'alloh', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['agar', 'urusan', 'kita', 'diurus', 'sempurna', 'oleh', 'allah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
+          <t>['urusan', 'diurus', 'sempurna', 'allah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['urus', 'urus', 'sempurna', 'allah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14212</v>
+        <v>30010</v>
       </c>
       <c r="C64" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kajian mq pagiciri orang yang disukai alloh kajian mq pagi</t>
+          <t>wirausaha sebagai sunnah rasulullah kajian mq pagi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagiciri', 'orang', 'yang', 'disukai', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>['wirausaha', 'sebagai', 'sunnah', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['wirausaha', 'sebagai', 'sunnah', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagiciri', 'orang', 'disukai', 'alloh', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagiciri', 'orang', 'suka', 'alloh', 'kaji', 'mq', 'pagi']</t>
+          <t>['wirausaha', 'sunnah', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['wirausaha', 'sunnah', 'rasulullah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14213</v>
+        <v>30011</v>
       </c>
       <c r="C65" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>betapa berharganya setiap satu nafas</t>
+          <t>alat ukur ke imanan kita</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['betapa', 'berharganya', 'setiap', 'satu', 'nafas']</t>
+          <t>['alat', 'ukur', 'ke', 'imanan', 'kita']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['alat', 'ukur', 'ke', 'imanan', 'kita']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['betapa', 'berharganya', 'nafas']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['betapa', 'harga', 'nafas']</t>
+          <t>['alat', 'ukur', 'imanan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['alat', 'ukur', 'iman']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14214</v>
+        <v>30012</v>
       </c>
       <c r="C66" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pengantar ilmu waris bersama ustadz fahrudin</t>
+          <t>fiqih sholat safar oleh ustadz mulyadi alfadhil kajian mq pagi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['pengantar', 'ilmu', 'waris', 'bersama', 'ustadz', 'fahrudin']</t>
+          <t>['fiqih', 'sholat', 'safar', 'oleh', 'ustadz', 'mulyadi', 'alfadhil', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['fiqih', 'salat', 'safar', 'oleh', 'ustaz', 'mulyadi', 'alfadhil', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['pengantar', 'ilmu', 'waris', 'ustadz', 'fahrudin']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['antar', 'ilmu', 'waris', 'ustadz', 'fahrudin']</t>
+          <t>['fiqih', 'salat', 'safar', 'ustaz', 'mulyadi', 'alfadhil', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['fiqih', 'salat', 'safar', 'ustaz', 'mulyadi', 'alfadhil', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14215</v>
+        <v>30013</v>
       </c>
       <c r="C67" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>berbincang dengan kembaran aa prof jim dari usa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['berbincang', 'dengan', 'kembaran', 'aa', 'prof', 'jim', 'dari', 'usa']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['berbincang', 'dengan', 'kembaran', 'kakak', 'prof', 'jim', 'dari', 'united, state, of, america']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['berbincang', 'kembaran', 'kakak', 'prof', 'jim', 'united, state, of, america']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['bincang', 'kembar', 'kakak', 'prof', 'jim', 'united state of america']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14216</v>
+        <v>30014</v>
       </c>
       <c r="C68" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rosululloh mendakwahi hati kajian mq pagi</t>
+          <t>thibbun nabawi solusi sehat ala rosulullah kajian mq pagi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rosulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['rosululloh', 'dakwah', 'hati', 'kaji', 'mq', 'pagi']</t>
+          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rasulullah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['thibbun', 'nabawi', 'solusi', 'sehat', 'ala', 'rasulullah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14217</v>
+        <v>30015</v>
       </c>
       <c r="C69" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rosululloh mendakwahi hati kajian mq pagi</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['rosululloh', 'dakwah', 'hati', 'kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14218</v>
+        <v>30016</v>
       </c>
       <c r="C70" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>arrouuf alloh maha penyantun pemberi kajian asmaul husna</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['arrouuf', 'alloh', 'maha', 'penyantun', 'pemberi', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['arrouuf', 'allah', 'maha', 'penyantun', 'pemberi', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['arrouuf', 'allah', 'maha', 'penyantun', 'pemberi', 'kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['arrouuf', 'allah', 'maha', 'santun', 'beri', 'kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14219</v>
+        <v>30017</v>
       </c>
       <c r="C71" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>bekal perjalanan menuju akherat bersama ustadz mulyadi alfadhil</t>
+          <t>arrouuf alloh maha penyayang kajian asmaul husna</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['bekal', 'perjalanan', 'menuju', 'akherat', 'bersama', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['arrouuf', 'alloh', 'maha', 'penyayang', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['arrouuf', 'allah', 'maha', 'penyayang', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['bekal', 'perjalanan', 'akherat', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['bekal', 'jalan', 'akherat', 'ustadz', 'mulyadi', 'alfadhil']</t>
+          <t>['arrouuf', 'allah', 'maha', 'penyayang', 'kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['arrouuf', 'allah', 'maha', 'sayang', 'kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14220</v>
+        <v>30018</v>
       </c>
       <c r="C72" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>mengakuai sebagai hamba amp bersikap sebagai hamba supaya ditolong alloh</t>
+          <t>kajian kitab alhikam no</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['mengakuai', 'sebagai', 'hamba', 'amp', 'bersikap', 'sebagai', 'hamba', 'supaya', 'ditolong', 'alloh']</t>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['mengakuai', 'hamba', 'bersikap', 'hamba', 'ditolong', 'alloh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['akua', 'hamba', 'sikap', 'hamba', 'tolong', 'alloh']</t>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['kaji', 'kitab', 'alhikam', 'no']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14221</v>
+        <v>30019</v>
       </c>
       <c r="C73" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>alloh yang maha mengkaruniakan keamanan</t>
+          <t>wirausaha sebagai sunah rosul kajian mq pagi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['alloh', 'yang', 'maha', 'mengkaruniakan', 'keamanan']</t>
+          <t>['wirausaha', 'sebagai', 'sunah', 'rosul', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['wirausaha', 'sebagai', 'sunah', 'rosul', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'mengkaruniakan', 'keamanan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'karunia', 'aman']</t>
+          <t>['wirausaha', 'sunah', 'rosul', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['wirausaha', 'sunah', 'rosul', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14222</v>
+        <v>30020</v>
       </c>
       <c r="C74" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>alloh yang maha mengkaruniakan kemanan</t>
+          <t>fiqih pasien oleh ustadz mulyadi alfadhil</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['alloh', 'yang', 'maha', 'mengkaruniakan', 'kemanan']</t>
+          <t>['fiqih', 'pasien', 'oleh', 'ustadz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['fiqih', 'pasien', 'oleh', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'mengkaruniakan', 'kemanan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'karunia', 'keman']</t>
+          <t>['fiqih', 'pasien', 'ustaz', 'mulyadi', 'alfadhil']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['fiqih', 'pasien', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14223</v>
+        <v>30021</v>
       </c>
       <c r="C75" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>isolasi adalah karunia penguat iman ilmu dan amal</t>
+          <t>pendengaran pengelihatan kulit ini akan bersaksi kelak</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['isolasi', 'adalah', 'karunia', 'penguat', 'iman', 'ilmu', 'dan', 'amal']</t>
+          <t>['pendengaran', 'pengelihatan', 'kulit', 'ini', 'akan', 'bersaksi', 'kelak']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['pendengaran', 'pengelihatan', 'kulit', 'ini', 'akan', 'bersaksi', 'kelak']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['isolasi', 'karunia', 'penguat', 'iman', 'ilmu', 'amal']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['isolasi', 'karunia', 'kuat', 'iman', 'ilmu', 'amal']</t>
+          <t>['pendengaran', 'pengelihatan', 'kulit', 'bersaksi', 'kelak']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['dengar', 'lihat', 'kulit', 'saksi', 'kelak']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14224</v>
+        <v>30022</v>
       </c>
       <c r="C76" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>membangun kekuatan ruhiyah</t>
+          <t>alloh memberi sebelum kita meminta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['membangun', 'kekuatan', 'ruhiyah']</t>
+          <t>['alloh', 'memberi', 'sebelum', 'kita', 'meminta']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['allah', 'memberi', 'sebelum', 'kita', 'meminta']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['membangun', 'kekuatan', 'ruhiyah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['bangun', 'kuat', 'ruhiyah']</t>
+          <t>['allah']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['allah']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14225</v>
+        <v>30023</v>
       </c>
       <c r="C77" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>alloh menginginkan kita bahagia mulia amp selamat</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['alloh', 'menginginkan', 'kita', 'bahagia', 'mulia', 'amp', 'selamat']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['alloh', 'bahagia', 'mulia', 'selamat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['alloh', 'bahagia', 'mulia', 'selamat']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14226</v>
+        <v>30024</v>
       </c>
       <c r="C78" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>kiat tetap tenang jika diri keluarga positif covid</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['kiat', 'tetap', 'tenang', 'jika', 'diri', 'keluarga', 'positif', 'covid']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['kiat', 'tenang', 'keluarga', 'positif', 'covid']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['kiat', 'tenang', 'keluarga', 'positif', 'covid']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14227</v>
+        <v>30025</v>
       </c>
       <c r="C79" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>alloh mengetahui segala isi hati amp keinginan kita</t>
+          <t>alloh yang maha pemberi kajian mq pagi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['alloh', 'mengetahui', 'segala', 'isi', 'hati', 'amp', 'keinginan', 'kita']</t>
+          <t>['alloh', 'yang', 'maha', 'pemberi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['allah', 'yang', 'maha', 'pemberi', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['alloh', 'isi', 'hati']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['alloh', 'isi', 'hati']</t>
+          <t>['allah', 'maha', 'pemberi', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['allah', 'maha', 'beri', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14228</v>
+        <v>30026</v>
       </c>
       <c r="C80" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>bagaimana menjadi orang yang dicintai alloh</t>
+          <t>alwahhab kajian asmaul husna</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['bagaimana', 'menjadi', 'orang', 'yang', 'dicintai', 'alloh']</t>
+          <t>['alwahhab', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['alwahhab', 'kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['orang', 'dicintai', 'alloh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['orang', 'cinta', 'alloh']</t>
+          <t>['alwahhab', 'kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['alwahhab', 'kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14229</v>
+        <v>30027</v>
       </c>
       <c r="C81" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>orang yang diberi nikmat</t>
+          <t>kajian kitab alhikam no</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'diberi', 'nikmat']</t>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['orang', 'nikmat']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['orang', 'nikmat']</t>
+          <t>['kajian', 'kitab', 'alhikam', 'no']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kaji', 'kitab', 'alhikam', 'no']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14230</v>
+        <v>30028</v>
       </c>
       <c r="C82" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kekuatan perkataan yang di tuntun alloh kitab alhikam no</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kekuatan', 'perkataan', 'yang', 'di', 'tuntun', 'alloh', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kekuatan', 'perkataan', 'tuntun', 'alloh', 'kitab', 'alhikam', 'no']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['kuat', 'kata', 'tuntun', 'alloh', 'kitab', 'alhikam', 'no']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14231</v>
+        <v>30029</v>
       </c>
       <c r="C83" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bincang bincang hikmah kena covid</t>
+          <t>akhlaq yang terlarang kajian mq pagi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['bincang', 'bincang', 'hikmah', 'kena', 'covid']</t>
+          <t>['akhlaq', 'yang', 'terlarang', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['akhlaq', 'yang', 'terlarang', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['bincang', 'bincang', 'hikmah', 'kena', 'covid']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['bincang', 'bincang', 'hikmah', 'kena', 'covid']</t>
+          <t>['akhlaq', 'terlarang', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['akhlaq', 'larang', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14232</v>
+        <v>30030</v>
       </c>
       <c r="C84" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ciri seseorang dekat dengan alloh</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['ciri', 'seseorang', 'dekat', 'dengan', 'alloh']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['ciri', 'alloh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['ciri', 'alloh']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14233</v>
+        <v>30031</v>
       </c>
       <c r="C85" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ciri seseorang dekat dengan alloh</t>
+          <t>berprasangka baik kepada alloh kajian mq pagi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['ciri', 'seseorang', 'dekat', 'dengan', 'alloh']</t>
+          <t>['berprasangka', 'baik', 'kepada', 'alloh', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['berprasangka', 'baik', 'kepada', 'allah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['ciri', 'alloh']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['ciri', 'alloh']</t>
+          <t>['berprasangka', 'allah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['prasangka', 'allah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14234</v>
+        <v>30032</v>
       </c>
       <c r="C86" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jangan berharap ke makhluk</t>
+          <t>diskusi vaksin sinovac bersama ahlinya kajian mq pagi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['jangan', 'berharap', 'ke', 'makhluk']</t>
+          <t>['diskusi', 'vaksin', 'sinovac', 'bersama', 'ahlinya', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['diskusi', 'vaksin', 'sinovac', 'bersama', 'ahlinya', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['berharap', 'makhluk']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['harap', 'makhluk']</t>
+          <t>['diskusi', 'vaksin', 'sinovac', 'ahlinya', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['diskusi', 'vaksin', 'sinovac', 'ahli', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14235</v>
+        <v>30033</v>
       </c>
       <c r="C87" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,15 +3982,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['kaji', 'mq', 'pagi']</t>
         </is>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14236</v>
+        <v>30034</v>
       </c>
       <c r="C88" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,15 +4023,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['kaji', 'mq', 'pagi']</t>
         </is>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14237</v>
+        <v>30035</v>
       </c>
       <c r="C89" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>seni mengatasi problematika hidup muktamar imsa</t>
+          <t>just posted  photo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['seni', 'mengatasi', 'problematika', 'hidup', 'muktamar', 'imsa']</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['seni', 'mengatasi', 'problematika', 'hidup', 'muktamar', 'imsa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['seni', 'atas', 'problematika', 'hidup', 'muktamar', 'imsa']</t>
+          <t>['just', 'posted', 'photo']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14238</v>
+        <v>30036</v>
       </c>
       <c r="C90" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>kajian asmaul husna</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['kajian', 'mq', 'pagi']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['kajian', 'asmaul', 'husna']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kaji', 'asmaul', 'husna']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14239</v>
+        <v>30037</v>
       </c>
       <c r="C91" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>kunci ketenangan hati kajian mq pagi</t>
+          <t>rahasia kematian</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kunci', 'ketenangan', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>['rahasia', 'kematian']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rahasia', 'kematian']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['kunci', 'ketenangan', 'hati', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['kunci', 'tenang', 'hati', 'kaji', 'mq', 'pagi']</t>
+          <t>['rahasia', 'kematian']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['rahasia', 'mati']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14240</v>
+        <v>30038</v>
       </c>
       <c r="C92" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>kita hidup bahagia kajian bersama ustadz fahrudin</t>
+          <t>telah wafat syaikh ali saleh mohammed ali jaber</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['kita', 'hidup', 'bahagia', 'kajian', 'bersama', 'ustadz', 'fahrudin']</t>
+          <t>['telah', 'wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['telah', 'wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['hidup', 'bahagia', 'kajian', 'ustadz', 'fahrudin']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['hidup', 'bahagia', 'kaji', 'ustadz', 'fahrudin']</t>
+          <t>['wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['wafat', 'syaikh', 'ali', 'saleh', 'mohammed', 'ali', 'jaber']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14241</v>
+        <v>30039</v>
       </c>
       <c r="C93" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>kajian al hikam</t>
+          <t>kajian mq pagiciri orang yang disukai alloh kajian mq pagi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['kajian', 'al', 'hikam']</t>
+          <t>['kajian', 'mq', 'pagiciri', 'orang', 'yang', 'disukai', 'alloh', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagiciri', 'orang', 'yang', 'disukai', 'allah', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['kajian', 'al', 'hikam']</t>
+          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['kaji', 'al', 'hikam']</t>
+          <t>['kajian', 'mq', 'pagiciri', 'orang', 'disukai', 'allah', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagiciri', 'orang', 'suka', 'allah', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14242</v>
+        <v>30040</v>
       </c>
       <c r="C94" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>menyikapi perkataan buruk orang lain kajian mq pagi</t>
+          <t>betapa berharganya setiap satu nafas</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['menyikapi', 'perkataan', 'buruk', 'orang', 'lain', 'kajian', 'mq', 'pagi']</t>
+          <t>['betapa', 'berharganya', 'setiap', 'satu', 'nafas']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['betapa', 'berharganya', 'setiap', 'satu', 'nafas']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['menyikapi', 'perkataan', 'buruk', 'orang', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sikap', 'kata', 'buruk', 'orang', 'kaji', 'mq', 'pagi']</t>
+          <t>['betapa', 'berharganya', 'nafas']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['betapa', 'harga', 'nafas']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14243</v>
+        <v>30041</v>
       </c>
       <c r="C95" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>alloh yang maha menaklukan segalagalanya kajian mq pagi</t>
+          <t>pengantar ilmu waris bersama ustadz fahrudin</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['alloh', 'yang', 'maha', 'menaklukan', 'segalagalanya', 'kajian', 'mq', 'pagi']</t>
+          <t>['pengantar', 'ilmu', 'waris', 'bersama', 'ustadz', 'fahrudin']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['pengantar', 'ilmu', 'waris', 'bersama', 'ustaz', 'fahrudin']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'menaklukan', 'segalagalanya', 'kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'takluk', 'segalagalanya', 'kaji', 'mq', 'pagi']</t>
+          <t>['pengantar', 'ilmu', 'waris', 'ustaz', 'fahrudin']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['antar', 'ilmu', 'waris', 'ustaz', 'fahrudin']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14244</v>
+        <v>30042</v>
       </c>
       <c r="C96" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>keutamaan iman ilmu dan amal</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['keutamaan', 'iman', 'ilmu', 'dan', 'amal']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['keutamaan', 'iman', 'ilmu', 'amal']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['utama', 'iman', 'ilmu', 'amal']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14245</v>
+        <v>30043</v>
       </c>
       <c r="C97" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kajian mq pagi</t>
+          <t>rosululloh mendakwahi hati kajian mq pagi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['kajian', 'mq', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kaji', 'mq', 'pagi']</t>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['rosululloh', 'dakwah', 'hati', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14246</v>
+        <v>30044</v>
       </c>
       <c r="C98" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>alloh maha membuka kajian mq pagi</t>
+          <t>rosululloh mendakwahi hati kajian mq pagi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'membuka', 'kajian', 'mq', 'pagi']</t>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['alloh', 'maha', 'membuka', 'kajian', 'mq', 'pagi']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'buka', 'kaji', 'mq', 'pagi']</t>
+          <t>['rosululloh', 'mendakwahi', 'hati', 'kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['rosululloh', 'dakwah', 'hati', 'kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14247</v>
+        <v>30045</v>
       </c>
       <c r="C99" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>alloh tidak membebani kecuali sesuai kemampuan hambanya</t>
+          <t>kajian mq pagi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['alloh', 'tidak', 'membebani', 'kecuali', 'sesuai', 'kemampuan', 'hambanya']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kajian', 'mq', 'pagi']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['alloh', 'membebani', 'kecuali', 'sesuai', 'kemampuan', 'hambanya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['alloh', 'beban', 'kecuali', 'sesuai', 'mampu', 'hamba']</t>
+          <t>['kajian', 'mq', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['kaji', 'mq', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14248</v>
+        <v>30046</v>
       </c>
       <c r="C100" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>alloh maha pemberi rizki</t>
+          <t>bekal perjalanan menuju akherat bersama ustadz mulyadi alfadhil</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'pemberi', 'rizki']</t>
+          <t>['bekal', 'perjalanan', 'menuju', 'akherat', 'bersama', 'ustadz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bekal', 'perjalanan', 'menuju', 'akhirat', 'bersama', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'pemberi', 'rizki']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['alloh', 'maha', 'beri', 'rizki']</t>
+          <t>['bekal', 'perjalanan', 'akhirat', 'ustaz', 'mulyadi', 'alfadhil']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['bekal', 'jalan', 'akhirat', 'ustaz', 'mulyadi', 'alfadhil']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14249</v>
+        <v>30047</v>
       </c>
       <c r="C101" t="n">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>pengalaman terkena covid</t>
+          <t>mengakuai sebagai hamba amp bersikap sebagai hamba supaya ditolong alloh</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['pengalaman', 'terkena', 'covid']</t>
+          <t>['mengakuai', 'sebagai', 'hamba', 'amp', 'bersikap', 'sebagai', 'hamba', 'supaya', 'ditolong', 'alloh']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mengakuai', 'sebagai', 'hamba', 'amp', 'bersikap', 'sebagai', 'hamba', 'supaya', 'ditolong', 'allah']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['pengalaman', 'terkena', 'covid']</t>
+          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['alam', 'kena', 'covid']</t>
+          <t>['mengakuai', 'hamba', 'bersikap', 'hamba', 'ditolong', 'allah']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['akua', 'hamba', 'sikap', 'hamba', 'tolong', 'allah']</t>
         </is>
       </c>
     </row>
